--- a/biology/Médecine/Nerf_supra-scapulaire/Nerf_supra-scapulaire.xlsx
+++ b/biology/Médecine/Nerf_supra-scapulaire/Nerf_supra-scapulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf supra-scapulaire (ou nerf sus-scapulaire) est un nerf du corps humain situé au niveau du cou et de l'épaule. 
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf supra-scapulaire nait sur la face postérieure du tronc supérieur du plexus brachial. Il contient des fibres en provenance des cinquième et sixième nerfs cervicaux
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf supra-scapulaire longe la face postérieure du ventre postérieur du muscle omo-hyoïdien. Il passe par l'incisure scapulaire sous le ligament transverse supérieur de la scapula. Il croise le bord latéral de l'épine de la scapula et se termine dans le muscle infra-épineux et dans le ligament coraco-claviculaire de l'articulation gléno-humérale.
 </t>
@@ -573,7 +589,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf supra-scapulaire innerve les muscles supra-épineux et infra-épineux.
 Il donne également des branches articulaires aux articulations gléno-humérale et acromio-claviculaire, et parfois une branche sensitive pour une petite partie de la peau du bras.
@@ -605,7 +623,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lésion du nerf supra-scapulaire provoque des douleurs dorsales, des problèmes d'abduction et de rotation externe de l'humérus, et une atrophie des muscles sus-épineux et infra-épineux. La lésion peut être occasionnée par une compression dans son passage de l'incisure scapulaire.
 </t>
